--- a/docs/lluvia_lotes.xlsx
+++ b/docs/lluvia_lotes.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbalbontingumucio/Desktop/2020-1/CAPSTONE/Proyecto/vitivinicola/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847055B-053C-7C44-99ED-9D41A9302B5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lluvias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -892,7 +905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -956,11 +969,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1002,7 +1023,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,9 +1055,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,6 +1107,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,12 +1300,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -1283,10 +1347,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3.055</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="D3">
-        <v>3.055</v>
+        <v>3.0550000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1297,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.491</v>
+        <v>3.4910000000000001</v>
       </c>
       <c r="D4">
-        <v>3.491</v>
+        <v>3.4910000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1311,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D5">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1325,10 +1389,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4.372</v>
+        <v>4.3719999999999999</v>
       </c>
       <c r="D6">
-        <v>4.372</v>
+        <v>4.3719999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1339,10 +1403,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>3.223</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="D7">
-        <v>3.223</v>
+        <v>3.2229999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1353,10 +1417,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3.364</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="D8">
-        <v>3.364</v>
+        <v>3.3639999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1367,10 +1431,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2.929</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="D9">
-        <v>2.929</v>
+        <v>2.9289999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1437,10 +1501,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3.937</v>
+        <v>3.9369999999999998</v>
       </c>
       <c r="D14">
-        <v>3.937</v>
+        <v>3.9369999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1451,10 +1515,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>3.745</v>
+        <v>3.7450000000000001</v>
       </c>
       <c r="D15">
-        <v>3.745</v>
+        <v>3.7450000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1465,10 +1529,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2.902</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="D16">
-        <v>2.902</v>
+        <v>2.9020000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1479,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>3.281</v>
+        <v>3.2810000000000001</v>
       </c>
       <c r="D17">
-        <v>3.281</v>
+        <v>3.2810000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1493,10 +1557,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>3.454</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="D18">
-        <v>3.454</v>
+        <v>3.4540000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1521,10 +1585,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>3.204</v>
+        <v>3.2040000000000002</v>
       </c>
       <c r="D20">
-        <v>3.204</v>
+        <v>3.2040000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1535,10 +1599,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2.862</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="D21">
-        <v>2.862</v>
+        <v>2.8620000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1549,10 +1613,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2.775</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="D22">
-        <v>2.775</v>
+        <v>2.7749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1563,10 +1627,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>3.041</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="D23">
-        <v>3.041</v>
+        <v>3.0409999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1577,10 +1641,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>3.279</v>
+        <v>3.2789999999999999</v>
       </c>
       <c r="D24">
-        <v>3.279</v>
+        <v>3.2789999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1591,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>4.176</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="D25">
-        <v>4.176</v>
+        <v>4.1760000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1605,10 +1669,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>4.002</v>
+        <v>4.0019999999999998</v>
       </c>
       <c r="D26">
-        <v>4.002</v>
+        <v>4.0019999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1619,10 +1683,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>3.651</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="D27">
-        <v>3.651</v>
+        <v>3.6509999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1647,10 +1711,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>3.473</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="D29">
-        <v>3.473</v>
+        <v>3.4729999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1675,10 +1739,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>2.768</v>
+        <v>2.7679999999999998</v>
       </c>
       <c r="D31">
-        <v>2.768</v>
+        <v>2.7679999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1689,10 +1753,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>4.136</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="D32">
-        <v>4.136</v>
+        <v>4.1360000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1717,10 +1781,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>3.636</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="D34">
-        <v>3.636</v>
+        <v>3.6360000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1731,10 +1795,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>3.072</v>
+        <v>3.0720000000000001</v>
       </c>
       <c r="D35">
-        <v>3.072</v>
+        <v>3.0720000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1759,10 +1823,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>3.454</v>
+        <v>3.4540000000000002</v>
       </c>
       <c r="D37">
-        <v>3.454</v>
+        <v>3.4540000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1773,10 +1837,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>3.465</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="D38">
-        <v>3.465</v>
+        <v>3.4649999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1787,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>3.023</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="D39">
-        <v>3.023</v>
+        <v>3.0230000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1815,10 +1879,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>4.057</v>
+        <v>4.0570000000000004</v>
       </c>
       <c r="D41">
-        <v>4.057</v>
+        <v>4.0570000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1829,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>2.584</v>
+        <v>2.5840000000000001</v>
       </c>
       <c r="D42">
-        <v>2.584</v>
+        <v>2.5840000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1843,10 +1907,10 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>3.107</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="D43">
-        <v>3.107</v>
+        <v>3.1070000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1857,10 +1921,10 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>4.064</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="D44">
-        <v>4.064</v>
+        <v>4.0640000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1871,10 +1935,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>2.721</v>
+        <v>2.7210000000000001</v>
       </c>
       <c r="D45">
-        <v>2.721</v>
+        <v>2.7210000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1913,10 +1977,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>3.042</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="D48">
-        <v>3.042</v>
+        <v>3.0419999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1941,10 +2005,10 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>3.061</v>
+        <v>3.0609999999999999</v>
       </c>
       <c r="D50">
-        <v>3.061</v>
+        <v>3.0609999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1955,10 +2019,10 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>3.146</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="D51">
-        <v>3.146</v>
+        <v>3.1459999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1969,10 +2033,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>3.965</v>
+        <v>3.9649999999999999</v>
       </c>
       <c r="D52">
-        <v>3.965</v>
+        <v>3.9649999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1997,10 +2061,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>2.896</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="D54">
-        <v>2.896</v>
+        <v>2.8959999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2025,10 +2089,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>2.873</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D56">
-        <v>2.873</v>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2039,10 +2103,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>3.479</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="D57">
-        <v>3.479</v>
+        <v>3.4790000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2053,10 +2117,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>3.388</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="D58">
-        <v>3.388</v>
+        <v>3.3879999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2067,10 +2131,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>3.723</v>
+        <v>3.7229999999999999</v>
       </c>
       <c r="D59">
-        <v>3.723</v>
+        <v>3.7229999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2081,10 +2145,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>2.618</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="D60">
-        <v>2.618</v>
+        <v>2.6179999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2109,10 +2173,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>3.713</v>
+        <v>3.7130000000000001</v>
       </c>
       <c r="D62">
-        <v>3.713</v>
+        <v>3.7130000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2123,10 +2187,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>2.901</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D63">
-        <v>2.901</v>
+        <v>2.9009999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2137,10 +2201,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>2.815</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="D64">
-        <v>2.815</v>
+        <v>2.8149999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2151,10 +2215,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="D65">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2165,10 +2229,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>2.686</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="D66">
-        <v>2.686</v>
+        <v>2.6859999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2193,10 +2257,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>3.824</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="D68">
-        <v>3.824</v>
+        <v>3.8239999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2207,10 +2271,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>3.916</v>
+        <v>3.9159999999999999</v>
       </c>
       <c r="D69">
-        <v>3.916</v>
+        <v>3.9159999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2221,10 +2285,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>3.301</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="D70">
-        <v>3.301</v>
+        <v>3.3010000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2235,10 +2299,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>3.389</v>
+        <v>3.3889999999999998</v>
       </c>
       <c r="D71">
-        <v>3.389</v>
+        <v>3.3889999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2263,10 +2327,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>3.051</v>
+        <v>3.0510000000000002</v>
       </c>
       <c r="D73">
-        <v>3.051</v>
+        <v>3.0510000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2319,10 +2383,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>2.866</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="D77">
-        <v>2.866</v>
+        <v>2.8660000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2333,10 +2397,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>3.623</v>
+        <v>3.6230000000000002</v>
       </c>
       <c r="D78">
-        <v>3.623</v>
+        <v>3.6230000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2347,10 +2411,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>3.342</v>
+        <v>3.3420000000000001</v>
       </c>
       <c r="D79">
-        <v>3.342</v>
+        <v>3.3420000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2361,10 +2425,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>3.507</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="D80">
-        <v>3.507</v>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2389,10 +2453,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>3.457</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="D82">
-        <v>3.457</v>
+        <v>3.4569999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2403,10 +2467,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>3.789</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="D83">
-        <v>3.789</v>
+        <v>3.7890000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2417,10 +2481,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>3.595</v>
+        <v>3.5950000000000002</v>
       </c>
       <c r="D84">
-        <v>3.595</v>
+        <v>3.5950000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2431,10 +2495,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>3.228</v>
+        <v>3.2280000000000002</v>
       </c>
       <c r="D85">
-        <v>3.228</v>
+        <v>3.2280000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2445,10 +2509,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>3.652</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="D86">
-        <v>3.652</v>
+        <v>3.6520000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2459,10 +2523,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>3.505</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="D87">
-        <v>3.505</v>
+        <v>3.5049999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2473,10 +2537,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>3.624</v>
+        <v>3.6240000000000001</v>
       </c>
       <c r="D88">
-        <v>3.624</v>
+        <v>3.6240000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2487,10 +2551,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>3.606</v>
+        <v>3.6059999999999999</v>
       </c>
       <c r="D89">
-        <v>3.606</v>
+        <v>3.6059999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2515,10 +2579,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>3.624</v>
+        <v>3.6240000000000001</v>
       </c>
       <c r="D91">
-        <v>3.624</v>
+        <v>3.6240000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2529,10 +2593,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>3.283</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="D92">
-        <v>3.283</v>
+        <v>3.2829999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2543,10 +2607,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>3.232</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="D93">
-        <v>3.232</v>
+        <v>3.2320000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2557,10 +2621,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>3.666</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="D94">
-        <v>3.666</v>
+        <v>3.6659999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2571,10 +2635,10 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>2.551</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="D95">
-        <v>2.551</v>
+        <v>2.5510000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2585,10 +2649,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>3.914</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="D96">
-        <v>3.914</v>
+        <v>3.9140000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2599,10 +2663,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="D97">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2613,10 +2677,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="D98">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2669,10 +2733,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>3.094</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="D102">
-        <v>3.094</v>
+        <v>3.0939999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2683,10 +2747,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>3.061</v>
+        <v>3.0609999999999999</v>
       </c>
       <c r="D103">
-        <v>3.061</v>
+        <v>3.0609999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2697,10 +2761,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>2.842</v>
+        <v>2.8420000000000001</v>
       </c>
       <c r="D104">
-        <v>2.842</v>
+        <v>2.8420000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2711,10 +2775,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="D105">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2725,10 +2789,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>3.108</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="D106">
-        <v>3.108</v>
+        <v>3.1080000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2739,10 +2803,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>2.914</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="D107">
-        <v>2.914</v>
+        <v>2.9140000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2753,10 +2817,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>3.029</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="D108">
-        <v>3.029</v>
+        <v>3.0289999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2767,10 +2831,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>4.088</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="D109">
-        <v>4.088</v>
+        <v>4.0880000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2781,10 +2845,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>3.349</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="D110">
-        <v>3.349</v>
+        <v>3.3490000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2795,10 +2859,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>3.449</v>
+        <v>3.4489999999999998</v>
       </c>
       <c r="D111">
-        <v>3.449</v>
+        <v>3.4489999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2823,10 +2887,10 @@
         <v>114</v>
       </c>
       <c r="C113">
-        <v>3.055</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="D113">
-        <v>3.055</v>
+        <v>3.0550000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2837,10 +2901,10 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>3.889</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="D114">
-        <v>3.889</v>
+        <v>3.8889999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2851,10 +2915,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>3.672</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="D115">
-        <v>3.672</v>
+        <v>3.6720000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2865,10 +2929,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>2.515</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="D116">
-        <v>2.515</v>
+        <v>2.5150000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2921,10 +2985,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>3.474</v>
+        <v>3.4740000000000002</v>
       </c>
       <c r="D120">
-        <v>3.474</v>
+        <v>3.4740000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2935,10 +2999,10 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>4.027</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="D121">
-        <v>4.027</v>
+        <v>4.0270000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2977,10 +3041,10 @@
         <v>125</v>
       </c>
       <c r="C124">
-        <v>3.692</v>
+        <v>3.6920000000000002</v>
       </c>
       <c r="D124">
-        <v>3.692</v>
+        <v>3.6920000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2991,10 +3055,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>3.337</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="D125">
-        <v>3.337</v>
+        <v>3.3370000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3005,10 +3069,10 @@
         <v>127</v>
       </c>
       <c r="C126">
-        <v>2.901</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="D126">
-        <v>2.901</v>
+        <v>2.9009999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3019,10 +3083,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>2.644</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="D127">
-        <v>2.644</v>
+        <v>2.6440000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3033,10 +3097,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>3.119</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="D128">
-        <v>3.119</v>
+        <v>3.1190000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3047,10 +3111,10 @@
         <v>130</v>
       </c>
       <c r="C129">
-        <v>3.542</v>
+        <v>3.5419999999999998</v>
       </c>
       <c r="D129">
-        <v>3.542</v>
+        <v>3.5419999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3075,10 +3139,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>3.785</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="D131">
-        <v>3.785</v>
+        <v>3.7850000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3089,10 +3153,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>2.926</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="D132">
-        <v>2.926</v>
+        <v>2.9260000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3131,10 +3195,10 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>3.159</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="D135">
-        <v>3.159</v>
+        <v>3.1589999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3145,10 +3209,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>3.475</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="D136">
-        <v>3.475</v>
+        <v>3.4750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3159,10 +3223,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>4.041</v>
+        <v>4.0410000000000004</v>
       </c>
       <c r="D137">
-        <v>4.041</v>
+        <v>4.0410000000000004</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3201,10 +3265,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>3.217</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="D140">
-        <v>3.217</v>
+        <v>3.2170000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3215,10 +3279,10 @@
         <v>142</v>
       </c>
       <c r="C141">
-        <v>2.787</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="D141">
-        <v>2.787</v>
+        <v>2.7869999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3229,10 +3293,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>2.735</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="D142">
-        <v>2.735</v>
+        <v>2.7349999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3243,10 +3307,10 @@
         <v>144</v>
       </c>
       <c r="C143">
-        <v>3.982</v>
+        <v>3.9820000000000002</v>
       </c>
       <c r="D143">
-        <v>3.982</v>
+        <v>3.9820000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3271,10 +3335,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>3.479</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="D145">
-        <v>3.479</v>
+        <v>3.4790000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3299,10 +3363,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>3.321</v>
+        <v>3.3210000000000002</v>
       </c>
       <c r="D147">
-        <v>3.321</v>
+        <v>3.3210000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3313,10 +3377,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>3.747</v>
+        <v>3.7469999999999999</v>
       </c>
       <c r="D148">
-        <v>3.747</v>
+        <v>3.7469999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3355,10 +3419,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>3.493</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="D151">
-        <v>3.493</v>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3383,10 +3447,10 @@
         <v>154</v>
       </c>
       <c r="C153">
-        <v>3.267</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="D153">
-        <v>3.267</v>
+        <v>3.2669999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3397,10 +3461,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>3.068</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="D154">
-        <v>3.068</v>
+        <v>3.0680000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3425,10 +3489,10 @@
         <v>157</v>
       </c>
       <c r="C156">
-        <v>2.894</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="D156">
-        <v>2.894</v>
+        <v>2.8940000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3439,10 +3503,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>3.438</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="D157">
-        <v>3.438</v>
+        <v>3.4380000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3453,10 +3517,10 @@
         <v>159</v>
       </c>
       <c r="C158">
-        <v>4.015</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="D158">
-        <v>4.015</v>
+        <v>4.0149999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3467,10 +3531,10 @@
         <v>160</v>
       </c>
       <c r="C159">
-        <v>3.499</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="D159">
-        <v>3.499</v>
+        <v>3.4990000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3481,10 +3545,10 @@
         <v>161</v>
       </c>
       <c r="C160">
-        <v>3.151</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="D160">
-        <v>3.151</v>
+        <v>3.1509999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3509,10 +3573,10 @@
         <v>163</v>
       </c>
       <c r="C162">
-        <v>2.932</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="D162">
-        <v>2.932</v>
+        <v>2.9319999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3537,10 +3601,10 @@
         <v>165</v>
       </c>
       <c r="C164">
-        <v>3.287</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="D164">
-        <v>3.287</v>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3565,10 +3629,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>3.098</v>
+        <v>3.0979999999999999</v>
       </c>
       <c r="D166">
-        <v>3.098</v>
+        <v>3.0979999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3579,10 +3643,10 @@
         <v>168</v>
       </c>
       <c r="C167">
-        <v>3.725</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="D167">
-        <v>3.725</v>
+        <v>3.7250000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3593,10 +3657,10 @@
         <v>169</v>
       </c>
       <c r="C168">
-        <v>3.341</v>
+        <v>3.3410000000000002</v>
       </c>
       <c r="D168">
-        <v>3.341</v>
+        <v>3.3410000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3607,10 +3671,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>3.346</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="D169">
-        <v>3.346</v>
+        <v>3.3460000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3621,10 +3685,10 @@
         <v>171</v>
       </c>
       <c r="C170">
-        <v>3.293</v>
+        <v>3.2930000000000001</v>
       </c>
       <c r="D170">
-        <v>3.293</v>
+        <v>3.2930000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3663,10 +3727,10 @@
         <v>174</v>
       </c>
       <c r="C173">
-        <v>3.518</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="D173">
-        <v>3.518</v>
+        <v>3.5179999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3677,10 +3741,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>3.594</v>
+        <v>3.5939999999999999</v>
       </c>
       <c r="D174">
-        <v>3.594</v>
+        <v>3.5939999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3691,10 +3755,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>3.767</v>
+        <v>3.7669999999999999</v>
       </c>
       <c r="D175">
-        <v>3.767</v>
+        <v>3.7669999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3733,10 +3797,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>3.283</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="D178">
-        <v>3.283</v>
+        <v>3.2829999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3747,10 +3811,10 @@
         <v>180</v>
       </c>
       <c r="C179">
-        <v>4.079</v>
+        <v>4.0789999999999997</v>
       </c>
       <c r="D179">
-        <v>4.079</v>
+        <v>4.0789999999999997</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3761,10 +3825,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>3.289</v>
+        <v>3.2890000000000001</v>
       </c>
       <c r="D180">
-        <v>3.289</v>
+        <v>3.2890000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3775,10 +3839,10 @@
         <v>182</v>
       </c>
       <c r="C181">
-        <v>3.252</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="D181">
-        <v>3.252</v>
+        <v>3.2519999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3789,10 +3853,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>3.376</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="D182">
-        <v>3.376</v>
+        <v>3.3759999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3803,10 +3867,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>4.026</v>
+        <v>4.0259999999999998</v>
       </c>
       <c r="D183">
-        <v>4.026</v>
+        <v>4.0259999999999998</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3817,10 +3881,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>2.729</v>
+        <v>2.7290000000000001</v>
       </c>
       <c r="D184">
-        <v>2.729</v>
+        <v>2.7290000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3831,10 +3895,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>3.658</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="D185">
-        <v>3.658</v>
+        <v>3.6579999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3873,10 +3937,10 @@
         <v>189</v>
       </c>
       <c r="C188">
-        <v>3.026</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="D188">
-        <v>3.026</v>
+        <v>3.0259999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3887,10 +3951,10 @@
         <v>190</v>
       </c>
       <c r="C189">
-        <v>3.685</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="D189">
-        <v>3.685</v>
+        <v>3.6850000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3901,10 +3965,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>3.092</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="D190">
-        <v>3.092</v>
+        <v>3.0920000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3915,10 +3979,10 @@
         <v>192</v>
       </c>
       <c r="C191">
-        <v>3.932</v>
+        <v>3.9319999999999999</v>
       </c>
       <c r="D191">
-        <v>3.932</v>
+        <v>3.9319999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3929,10 +3993,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>3.523</v>
+        <v>3.5230000000000001</v>
       </c>
       <c r="D192">
-        <v>3.523</v>
+        <v>3.5230000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3971,10 +4035,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>2.713</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="D195">
-        <v>2.713</v>
+        <v>2.7130000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3985,10 +4049,10 @@
         <v>197</v>
       </c>
       <c r="C196">
-        <v>3.162</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="D196">
-        <v>3.162</v>
+        <v>3.1619999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3999,10 +4063,10 @@
         <v>198</v>
       </c>
       <c r="C197">
-        <v>4.003</v>
+        <v>4.0030000000000001</v>
       </c>
       <c r="D197">
-        <v>4.003</v>
+        <v>4.0030000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4013,10 +4077,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>3.494</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="D198">
-        <v>3.494</v>
+        <v>3.4940000000000002</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4041,10 +4105,10 @@
         <v>201</v>
       </c>
       <c r="C200">
-        <v>3.001</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="D200">
-        <v>3.001</v>
+        <v>3.0009999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4055,10 +4119,10 @@
         <v>202</v>
       </c>
       <c r="C201">
-        <v>3.191</v>
+        <v>3.1909999999999998</v>
       </c>
       <c r="D201">
-        <v>3.191</v>
+        <v>3.1909999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4083,10 +4147,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>3.406</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="D203">
-        <v>3.406</v>
+        <v>3.4060000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4097,10 +4161,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>3.237</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="D204">
-        <v>3.237</v>
+        <v>3.2370000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4111,10 +4175,10 @@
         <v>206</v>
       </c>
       <c r="C205">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="D205">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4153,10 +4217,10 @@
         <v>209</v>
       </c>
       <c r="C208">
-        <v>3.708</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="D208">
-        <v>3.708</v>
+        <v>3.7080000000000002</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4167,10 +4231,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>3.326</v>
+        <v>3.3260000000000001</v>
       </c>
       <c r="D209">
-        <v>3.326</v>
+        <v>3.3260000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4181,10 +4245,10 @@
         <v>211</v>
       </c>
       <c r="C210">
-        <v>3.748</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="D210">
-        <v>3.748</v>
+        <v>3.7480000000000002</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4195,10 +4259,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>3.186</v>
+        <v>3.1859999999999999</v>
       </c>
       <c r="D211">
-        <v>3.186</v>
+        <v>3.1859999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4209,10 +4273,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>3.543</v>
+        <v>3.5430000000000001</v>
       </c>
       <c r="D212">
-        <v>3.543</v>
+        <v>3.5430000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4223,10 +4287,10 @@
         <v>214</v>
       </c>
       <c r="C213">
-        <v>3.352</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="D213">
-        <v>3.352</v>
+        <v>3.3519999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4237,10 +4301,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>3.626</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="D214">
-        <v>3.626</v>
+        <v>3.6259999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4279,10 +4343,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="D217">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4307,10 +4371,10 @@
         <v>220</v>
       </c>
       <c r="C219">
-        <v>3.579</v>
+        <v>3.5790000000000002</v>
       </c>
       <c r="D219">
-        <v>3.579</v>
+        <v>3.5790000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4321,10 +4385,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>3.397</v>
+        <v>3.3969999999999998</v>
       </c>
       <c r="D220">
-        <v>3.397</v>
+        <v>3.3969999999999998</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4349,10 +4413,10 @@
         <v>223</v>
       </c>
       <c r="C222">
-        <v>3.135</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="D222">
-        <v>3.135</v>
+        <v>3.1349999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4363,10 +4427,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="D223">
-        <v>3.189</v>
+        <v>3.1890000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4377,10 +4441,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>4.047</v>
+        <v>4.0469999999999997</v>
       </c>
       <c r="D224">
-        <v>4.047</v>
+        <v>4.0469999999999997</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4391,10 +4455,10 @@
         <v>226</v>
       </c>
       <c r="C225">
-        <v>3.955</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="D225">
-        <v>3.955</v>
+        <v>3.9550000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4405,10 +4469,10 @@
         <v>227</v>
       </c>
       <c r="C226">
-        <v>3.455</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="D226">
-        <v>3.455</v>
+        <v>3.4550000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4419,10 +4483,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>2.499</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="D227">
-        <v>2.499</v>
+        <v>2.4990000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4433,10 +4497,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>3.404</v>
+        <v>3.4039999999999999</v>
       </c>
       <c r="D228">
-        <v>3.404</v>
+        <v>3.4039999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4447,10 +4511,10 @@
         <v>230</v>
       </c>
       <c r="C229">
-        <v>3.344</v>
+        <v>3.3439999999999999</v>
       </c>
       <c r="D229">
-        <v>3.344</v>
+        <v>3.3439999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4461,10 +4525,10 @@
         <v>231</v>
       </c>
       <c r="C230">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="D230">
-        <v>3.817</v>
+        <v>3.8170000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4475,10 +4539,10 @@
         <v>232</v>
       </c>
       <c r="C231">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
       <c r="D231">
-        <v>3.199</v>
+        <v>3.1989999999999998</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4489,10 +4553,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>2.607</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="D232">
-        <v>2.607</v>
+        <v>2.6070000000000002</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4517,10 +4581,10 @@
         <v>235</v>
       </c>
       <c r="C234">
-        <v>3.349</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="D234">
-        <v>3.349</v>
+        <v>3.3490000000000002</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4559,10 +4623,10 @@
         <v>238</v>
       </c>
       <c r="C237">
-        <v>3.185</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="D237">
-        <v>3.185</v>
+        <v>3.1850000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4573,10 +4637,10 @@
         <v>239</v>
       </c>
       <c r="C238">
-        <v>2.854</v>
+        <v>2.8540000000000001</v>
       </c>
       <c r="D238">
-        <v>2.854</v>
+        <v>2.8540000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4601,10 +4665,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>3.313</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="D240">
-        <v>3.313</v>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4615,10 +4679,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>3.309</v>
+        <v>3.3090000000000002</v>
       </c>
       <c r="D241">
-        <v>3.309</v>
+        <v>3.3090000000000002</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4629,10 +4693,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>3.255</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="D242">
-        <v>3.255</v>
+        <v>3.2549999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4643,10 +4707,10 @@
         <v>244</v>
       </c>
       <c r="C243">
-        <v>3.123</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="D243">
-        <v>3.123</v>
+        <v>3.1230000000000002</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4657,10 +4721,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>3.146</v>
+        <v>3.1459999999999999</v>
       </c>
       <c r="D244">
-        <v>3.146</v>
+        <v>3.1459999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4671,10 +4735,10 @@
         <v>246</v>
       </c>
       <c r="C245">
-        <v>3.682</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="D245">
-        <v>3.682</v>
+        <v>3.6819999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4699,10 +4763,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>3.182</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="D247">
-        <v>3.182</v>
+        <v>3.1819999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4713,10 +4777,10 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>3.249</v>
+        <v>3.2490000000000001</v>
       </c>
       <c r="D248">
-        <v>3.249</v>
+        <v>3.2490000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4727,10 +4791,10 @@
         <v>250</v>
       </c>
       <c r="C249">
-        <v>3.502</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="D249">
-        <v>3.502</v>
+        <v>3.5019999999999998</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4741,10 +4805,10 @@
         <v>251</v>
       </c>
       <c r="C250">
-        <v>3.503</v>
+        <v>3.5030000000000001</v>
       </c>
       <c r="D250">
-        <v>3.503</v>
+        <v>3.5030000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4755,10 +4819,10 @@
         <v>252</v>
       </c>
       <c r="C251">
-        <v>3.229</v>
+        <v>3.2290000000000001</v>
       </c>
       <c r="D251">
-        <v>3.229</v>
+        <v>3.2290000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4769,10 +4833,10 @@
         <v>253</v>
       </c>
       <c r="C252">
-        <v>4.059</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="D252">
-        <v>4.059</v>
+        <v>4.0590000000000002</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4783,10 +4847,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>3.482</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="D253">
-        <v>3.482</v>
+        <v>3.4820000000000002</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4825,10 +4889,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="D256">
-        <v>2.945</v>
+        <v>2.9449999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4839,10 +4903,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>4.025</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="D257">
-        <v>4.025</v>
+        <v>4.0250000000000004</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4853,10 +4917,10 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>3.096</v>
+        <v>3.0960000000000001</v>
       </c>
       <c r="D258">
-        <v>3.096</v>
+        <v>3.0960000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4881,10 +4945,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>2.829</v>
+        <v>2.8290000000000002</v>
       </c>
       <c r="D260">
-        <v>2.829</v>
+        <v>2.8290000000000002</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4909,10 +4973,10 @@
         <v>263</v>
       </c>
       <c r="C262">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="D262">
-        <v>3.815</v>
+        <v>3.8149999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4923,10 +4987,10 @@
         <v>264</v>
       </c>
       <c r="C263">
-        <v>3.603</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="D263">
-        <v>3.603</v>
+        <v>3.6030000000000002</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4951,10 +5015,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>3.809</v>
+        <v>3.8090000000000002</v>
       </c>
       <c r="D265">
-        <v>3.809</v>
+        <v>3.8090000000000002</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4993,10 +5057,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="D268">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5007,10 +5071,10 @@
         <v>270</v>
       </c>
       <c r="C269">
-        <v>3.634</v>
+        <v>3.6339999999999999</v>
       </c>
       <c r="D269">
-        <v>3.634</v>
+        <v>3.6339999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5021,10 +5085,10 @@
         <v>271</v>
       </c>
       <c r="C270">
-        <v>4.123</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="D270">
-        <v>4.123</v>
+        <v>4.1230000000000002</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5035,10 +5099,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>2.849</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="D271">
-        <v>2.849</v>
+        <v>2.8490000000000002</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5049,10 +5113,10 @@
         <v>273</v>
       </c>
       <c r="C272">
-        <v>3.334</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="D272">
-        <v>3.334</v>
+        <v>3.3340000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5063,10 +5127,10 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>3.425</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="D273">
-        <v>3.425</v>
+        <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5091,10 +5155,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>3.717</v>
+        <v>3.7170000000000001</v>
       </c>
       <c r="D275">
-        <v>3.717</v>
+        <v>3.7170000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5119,10 +5183,10 @@
         <v>278</v>
       </c>
       <c r="C277">
-        <v>2.586</v>
+        <v>2.5859999999999999</v>
       </c>
       <c r="D277">
-        <v>2.586</v>
+        <v>2.5859999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5133,10 +5197,10 @@
         <v>279</v>
       </c>
       <c r="C278">
-        <v>3.346</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="D278">
-        <v>3.346</v>
+        <v>3.3460000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5147,10 +5211,10 @@
         <v>280</v>
       </c>
       <c r="C279">
-        <v>3.936</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="D279">
-        <v>3.936</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5175,10 +5239,10 @@
         <v>282</v>
       </c>
       <c r="C281">
-        <v>3.074</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="D281">
-        <v>3.074</v>
+        <v>3.0739999999999998</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5189,10 +5253,10 @@
         <v>283</v>
       </c>
       <c r="C282">
-        <v>3.425</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="D282">
-        <v>3.425</v>
+        <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5203,10 +5267,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>4.271</v>
+        <v>4.2709999999999999</v>
       </c>
       <c r="D283">
-        <v>4.271</v>
+        <v>4.2709999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5217,10 +5281,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>3.332</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="D284">
-        <v>3.332</v>
+        <v>3.3319999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5231,10 +5295,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>3.768</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="D285">
-        <v>3.768</v>
+        <v>3.7679999999999998</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5245,10 +5309,10 @@
         <v>287</v>
       </c>
       <c r="C286">
-        <v>3.358</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="D286">
-        <v>3.358</v>
+        <v>3.3580000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5259,10 +5323,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>3.796</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="D287">
-        <v>3.796</v>
+        <v>3.7959999999999998</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5287,10 +5351,10 @@
         <v>290</v>
       </c>
       <c r="C289">
-        <v>3.542</v>
+        <v>3.5419999999999998</v>
       </c>
       <c r="D289">
-        <v>3.542</v>
+        <v>3.5419999999999998</v>
       </c>
     </row>
   </sheetData>
